--- a/team_specific_matrix/The Citadel_A.xlsx
+++ b/team_specific_matrix/The Citadel_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1933962264150944</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C2">
-        <v>0.5424528301886793</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02830188679245283</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.169811320754717</v>
+        <v>0.1691729323308271</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0660377358490566</v>
+        <v>0.08270676691729323</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01680672268907563</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C3">
-        <v>0.008403361344537815</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03361344537815126</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7394957983193278</v>
+        <v>0.7248322147651006</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2016806722689076</v>
+        <v>0.2080536912751678</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05128205128205128</v>
+        <v>0.04975124378109453</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04487179487179487</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.282051282051282</v>
+        <v>0.2935323383084577</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01923076923076923</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1858974358974359</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="R6">
-        <v>0.07051282051282051</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="S6">
-        <v>0.3461538461538461</v>
+        <v>0.3383084577114428</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07446808510638298</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0425531914893617</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06382978723404255</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1063829787234043</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01063829787234043</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2127659574468085</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="R7">
-        <v>0.06382978723404255</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="S7">
-        <v>0.425531914893617</v>
+        <v>0.4188034188034188</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07058823529411765</v>
+        <v>0.07256235827664399</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02941176470588235</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07058823529411765</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1029411764705882</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005882352941176471</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2029411764705882</v>
+        <v>0.2018140589569161</v>
       </c>
       <c r="R8">
-        <v>0.06470588235294118</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="S8">
-        <v>0.4529411764705882</v>
+        <v>0.4421768707482993</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09883720930232558</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05232558139534884</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0755813953488372</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01162790697674419</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1802325581395349</v>
+        <v>0.2009803921568628</v>
       </c>
       <c r="R9">
-        <v>0.0755813953488372</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="S9">
-        <v>0.4825581395348837</v>
+        <v>0.446078431372549</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1232876712328767</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01255707762557078</v>
+        <v>0.01730418943533698</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06506849315068493</v>
+        <v>0.06648451730418943</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1050228310502283</v>
+        <v>0.1083788706739526</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01598173515981735</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2328767123287671</v>
+        <v>0.2194899817850638</v>
       </c>
       <c r="R10">
-        <v>0.0776255707762557</v>
+        <v>0.07468123861566485</v>
       </c>
       <c r="S10">
-        <v>0.3675799086757991</v>
+        <v>0.3743169398907104</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1700680272108843</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07482993197278912</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="K11">
-        <v>0.2108843537414966</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="L11">
-        <v>0.5034013605442177</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04081632653061224</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7808219178082192</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1917808219178082</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0273972602739726</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5925925925925926</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01219512195121951</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1707317073170732</v>
+        <v>0.1796116504854369</v>
       </c>
       <c r="I15">
-        <v>0.09146341463414634</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="J15">
-        <v>0.3597560975609756</v>
+        <v>0.354368932038835</v>
       </c>
       <c r="K15">
-        <v>0.06097560975609756</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01219512195121951</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06097560975609756</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2317073170731707</v>
+        <v>0.2378640776699029</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1875</v>
+        <v>0.1899441340782123</v>
       </c>
       <c r="I16">
-        <v>0.0763888888888889</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="J16">
-        <v>0.4722222222222222</v>
+        <v>0.4860335195530726</v>
       </c>
       <c r="K16">
-        <v>0.06944444444444445</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01388888888888889</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09722222222222222</v>
+        <v>0.0893854748603352</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01690140845070422</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2084507042253521</v>
+        <v>0.2268518518518519</v>
       </c>
       <c r="I17">
-        <v>0.123943661971831</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="J17">
-        <v>0.3971830985915493</v>
+        <v>0.3912037037037037</v>
       </c>
       <c r="K17">
-        <v>0.06478873239436619</v>
+        <v>0.06712962962962964</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01126760563380282</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N17">
-        <v>0.002816901408450704</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="O17">
-        <v>0.05633802816901409</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1183098591549296</v>
+        <v>0.1134259259259259</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1626016260162602</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="I18">
-        <v>0.08943089430894309</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="J18">
-        <v>0.3983739837398374</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="K18">
-        <v>0.04878048780487805</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1138211382113821</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1869918699186992</v>
+        <v>0.1602564102564103</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0255591054313099</v>
+        <v>0.0259515570934256</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2087326943556976</v>
+        <v>0.2179930795847751</v>
       </c>
       <c r="I19">
-        <v>0.09904153354632587</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="J19">
-        <v>0.3503727369542066</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K19">
-        <v>0.06922257720979766</v>
+        <v>0.06747404844290658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02023429179978701</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="N19">
-        <v>0.001064962726304579</v>
+        <v>0.0008650519031141869</v>
       </c>
       <c r="O19">
-        <v>0.07667731629392971</v>
+        <v>0.08044982698961937</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1490947816826411</v>
+        <v>0.1366782006920415</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/The Citadel_A.xlsx
+++ b/team_specific_matrix/The Citadel_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1917293233082707</v>
+        <v>0.1954397394136808</v>
       </c>
       <c r="C2">
-        <v>0.5338345864661654</v>
+        <v>0.5374592833876222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02255639097744361</v>
+        <v>0.02605863192182411</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1691729323308271</v>
+        <v>0.1628664495114006</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08270676691729323</v>
+        <v>0.07817589576547231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01342281879194631</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0.01342281879194631</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04026845637583892</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7248322147651006</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2080536912751678</v>
+        <v>0.2151162790697674</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P4">
-        <v>0.7380952380952381</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04975124378109453</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03980099502487562</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2935323383084577</v>
+        <v>0.3073593073593073</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02487562189054726</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1741293532338309</v>
+        <v>0.1731601731601732</v>
       </c>
       <c r="R6">
-        <v>0.07960199004975124</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="S6">
-        <v>0.3383084577114428</v>
+        <v>0.341991341991342</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07692307692307693</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03418803418803419</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05982905982905983</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008547008547008548</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2051282051282051</v>
+        <v>0.2269503546099291</v>
       </c>
       <c r="R7">
-        <v>0.08547008547008547</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="S7">
-        <v>0.4188034188034188</v>
+        <v>0.3687943262411347</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07256235827664399</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03174603174603174</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07482993197278912</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1020408163265306</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006802721088435374</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2018140589569161</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="R8">
-        <v>0.06802721088435375</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="S8">
-        <v>0.4421768707482993</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.107843137254902</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04411764705882353</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09313725490196079</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01470588235294118</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2009803921568628</v>
+        <v>0.2060085836909871</v>
       </c>
       <c r="R9">
-        <v>0.07352941176470588</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="S9">
-        <v>0.446078431372549</v>
+        <v>0.4377682403433477</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1229508196721311</v>
+        <v>0.1226492232215863</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01730418943533698</v>
+        <v>0.01635322976287817</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06648451730418943</v>
+        <v>0.0678659035159444</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1083788706739526</v>
+        <v>0.1062959934587081</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01639344262295082</v>
+        <v>0.01798855273916599</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2194899817850638</v>
+        <v>0.2150449713818479</v>
       </c>
       <c r="R10">
-        <v>0.07468123861566485</v>
+        <v>0.07277187244480784</v>
       </c>
       <c r="S10">
-        <v>0.3743169398907104</v>
+        <v>0.3810302534750613</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1685393258426966</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07865168539325842</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K11">
-        <v>0.2022471910112359</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L11">
-        <v>0.5168539325842697</v>
+        <v>0.5343137254901961</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03370786516853932</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7826086956521739</v>
+        <v>0.7946428571428571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1847826086956522</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02173913043478261</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0108695652173913</v>
+        <v>0.008928571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3428571428571429</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1796116504854369</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="I15">
-        <v>0.07281553398058252</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="J15">
-        <v>0.354368932038835</v>
+        <v>0.3605150214592275</v>
       </c>
       <c r="K15">
-        <v>0.06310679611650485</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01456310679611651</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05825242718446602</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2378640776699029</v>
+        <v>0.2446351931330472</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03910614525139665</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1899441340782123</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="I16">
-        <v>0.07262569832402235</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="J16">
-        <v>0.4860335195530726</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K16">
-        <v>0.0670391061452514</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0111731843575419</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0446927374301676</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0893854748603352</v>
+        <v>0.09313725490196079</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01388888888888889</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2268518518518519</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="I17">
-        <v>0.1203703703703704</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J17">
-        <v>0.3912037037037037</v>
+        <v>0.3909465020576132</v>
       </c>
       <c r="K17">
-        <v>0.06712962962962964</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01388888888888889</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="N17">
-        <v>0.002314814814814815</v>
+        <v>0.00205761316872428</v>
       </c>
       <c r="O17">
-        <v>0.05092592592592592</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1134259259259259</v>
+        <v>0.1193415637860082</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01282051282051282</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1730769230769231</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="I18">
-        <v>0.08974358974358974</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J18">
-        <v>0.4102564102564102</v>
+        <v>0.4176470588235294</v>
       </c>
       <c r="K18">
-        <v>0.04487179487179487</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.108974358974359</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1602564102564103</v>
+        <v>0.1588235294117647</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0259515570934256</v>
+        <v>0.02782071097372488</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2179930795847751</v>
+        <v>0.2187017001545595</v>
       </c>
       <c r="I19">
-        <v>0.09688581314878893</v>
+        <v>0.1004636785162288</v>
       </c>
       <c r="J19">
-        <v>0.3529411764705883</v>
+        <v>0.3454404945904173</v>
       </c>
       <c r="K19">
-        <v>0.06747404844290658</v>
+        <v>0.0687789799072643</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02076124567474048</v>
+        <v>0.02163833075734158</v>
       </c>
       <c r="N19">
-        <v>0.0008650519031141869</v>
+        <v>0.0007727975270479134</v>
       </c>
       <c r="O19">
-        <v>0.08044982698961937</v>
+        <v>0.08114374034003091</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1366782006920415</v>
+        <v>0.1352395672333848</v>
       </c>
     </row>
   </sheetData>
